--- a/MIXR Power/Project Outputs for MIXR Power/MIXR Power_1.0.xlsx
+++ b/MIXR Power/Project Outputs for MIXR Power/MIXR Power_1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taiping\Documents\FYDP\mixr-hardware\MIXR Power\Project Outputs for MIXR Power\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45ED653-B093-46B8-B0F5-65FA9E838FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A50861E-8607-47A9-AA91-05FF615C5200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="3780" windowWidth="28800" windowHeight="8220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
     <t>Taiping Li</t>
   </si>
   <si>
-    <t>2020-02-03 8:37 PM</t>
+    <t>2020-02-08 7:18 PM</t>
   </si>
   <si>
     <t>1</t>
@@ -120,7 +120,7 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>127</t>
+    <t>132</t>
   </si>
   <si>
     <t>LibRef</t>
@@ -252,6 +252,9 @@
     <t>RES 390K OHM 1% 1/10W 0603</t>
   </si>
   <si>
+    <t>RES 162K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
     <t>RES 22.1 OHM 1% 1/16W 0402</t>
   </si>
   <si>
@@ -279,9 +282,6 @@
     <t>RES 523K OHM 1% 1/16W 0402</t>
   </si>
   <si>
-    <t>RES 162K OHM 1% 1/16W 0402</t>
-  </si>
-  <si>
     <t>RES 4.7K OHM 1% 1/10W 0402</t>
   </si>
   <si>
@@ -291,6 +291,9 @@
     <t>NTC THERMISTOR 10K 1% BEAD</t>
   </si>
   <si>
+    <t>Thru Test Point</t>
+  </si>
+  <si>
     <t>IC BATT CHG LI-ION 1 CELL 24-VQFN</t>
   </si>
   <si>
@@ -321,9 +324,6 @@
     <t>IC BATT PROT LI-ION 1-CELL SOT26</t>
   </si>
   <si>
-    <t>Thru Test Point</t>
-  </si>
-  <si>
     <t>Designator</t>
   </si>
   <si>
@@ -435,7 +435,7 @@
     <t>R1, R2</t>
   </si>
   <si>
-    <t>R3, R10, R14, R19, R23, R29, R30, R37, R40</t>
+    <t>R3, R19, R23, R29, R30, R37, R40</t>
   </si>
   <si>
     <t>R4, R5, R11, R12</t>
@@ -453,6 +453,9 @@
     <t>R9</t>
   </si>
   <si>
+    <t>R10, R14, R31, R38</t>
+  </si>
+  <si>
     <t>R13, R26, R32, R39</t>
   </si>
   <si>
@@ -480,9 +483,6 @@
     <t>R28, R36</t>
   </si>
   <si>
-    <t>R31, R38</t>
-  </si>
-  <si>
     <t>R33, R34, R35</t>
   </si>
   <si>
@@ -492,6 +492,9 @@
     <t>RT1</t>
   </si>
   <si>
+    <t>TH_TP?, VBAT_PROT1</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -522,9 +525,6 @@
     <t>U10</t>
   </si>
   <si>
-    <t>VBAT_PROT1</t>
-  </si>
-  <si>
     <t>Manufacturer 1</t>
   </si>
   <si>
@@ -735,6 +735,9 @@
     <t>RT0603DRE07390KL</t>
   </si>
   <si>
+    <t>RC0402FR-07162KL</t>
+  </si>
+  <si>
     <t>RC0402FR-0722R1L</t>
   </si>
   <si>
@@ -762,9 +765,6 @@
     <t>RC0402FR-07523KL</t>
   </si>
   <si>
-    <t>RC0402FR-07162KL</t>
-  </si>
-  <si>
     <t>RC0402FR-074K7L</t>
   </si>
   <si>
@@ -942,6 +942,9 @@
     <t>311-2555-1-ND</t>
   </si>
   <si>
+    <t>YAG2370CT-ND</t>
+  </si>
+  <si>
     <t>311-22.1LRCT-ND</t>
   </si>
   <si>
@@ -969,9 +972,6 @@
     <t>YAG3177CT-ND</t>
   </si>
   <si>
-    <t>YAG2370CT-ND</t>
-  </si>
-  <si>
     <t>311-4.7KLRCT-ND</t>
   </si>
   <si>
@@ -1029,10 +1029,10 @@
     <t>Bill of Materials for Project [MIXR Power.PrjPcb] (No PCB Document Selected)</t>
   </si>
   <si>
-    <t>8:37 PM</t>
-  </si>
-  <si>
-    <t>2020-02-03</t>
+    <t>7:18 PM</t>
+  </si>
+  <si>
+    <t>2020-02-08</t>
   </si>
   <si>
     <t>BOM_PartType</t>
@@ -1761,13 +1761,13 @@
         <v>261</v>
       </c>
       <c r="G12" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
       </c>
       <c r="I12" s="10">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1790,13 +1790,13 @@
         <v>262</v>
       </c>
       <c r="G13" s="3">
-        <v>0.33085999999999999</v>
+        <v>0.33267000000000002</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>
       </c>
       <c r="I13" s="10">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1819,13 +1819,13 @@
         <v>263</v>
       </c>
       <c r="G14" s="3">
-        <v>0.14557999999999999</v>
+        <v>0.14638000000000001</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
       <c r="I14" s="10">
-        <v>0.14557999999999999</v>
+        <v>0.14638000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1848,13 +1848,13 @@
         <v>264</v>
       </c>
       <c r="G15" s="3">
-        <v>0.66171999999999997</v>
+        <v>0.66534000000000004</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="10">
-        <v>5.29</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1877,13 +1877,13 @@
         <v>265</v>
       </c>
       <c r="G16" s="3">
-        <v>0.58230999999999999</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
       </c>
       <c r="I16" s="10">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1906,13 +1906,13 @@
         <v>266</v>
       </c>
       <c r="G17" s="3">
-        <v>0.42349999999999999</v>
+        <v>0.42581999999999998</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
       <c r="I17" s="10">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1960,7 +1960,7 @@
         <v>268</v>
       </c>
       <c r="G19" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H19" s="3">
         <v>8</v>
@@ -1989,13 +1989,13 @@
         <v>269</v>
       </c>
       <c r="G20" s="3">
-        <v>0.43673000000000001</v>
+        <v>0.43913000000000002</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
       </c>
       <c r="I20" s="10">
-        <v>0.43673000000000001</v>
+        <v>0.43913000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2018,13 +2018,13 @@
         <v>270</v>
       </c>
       <c r="G21" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
       </c>
       <c r="I21" s="10">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2047,13 +2047,13 @@
         <v>271</v>
       </c>
       <c r="G22" s="3">
-        <v>0.42349999999999999</v>
+        <v>0.42581999999999998</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
       </c>
       <c r="I22" s="10">
-        <v>0.84699999999999998</v>
+        <v>0.85163999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2076,13 +2076,13 @@
         <v>272</v>
       </c>
       <c r="G23" s="3">
-        <v>0.33085999999999999</v>
+        <v>0.33267000000000002</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
       </c>
       <c r="I23" s="10">
-        <v>0.33085999999999999</v>
+        <v>0.33267000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2105,13 +2105,13 @@
         <v>273</v>
       </c>
       <c r="G24" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="10">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2134,13 +2134,13 @@
         <v>274</v>
       </c>
       <c r="G25" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H25" s="3">
         <v>3</v>
       </c>
       <c r="I25" s="10">
-        <v>0.39702999999999999</v>
+        <v>0.39921000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2163,13 +2163,13 @@
         <v>275</v>
       </c>
       <c r="G26" s="3">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H26" s="3">
         <v>5</v>
       </c>
       <c r="I26" s="10">
-        <v>7.81</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2192,13 +2192,13 @@
         <v>276</v>
       </c>
       <c r="G27" s="3">
-        <v>0.25145000000000001</v>
+        <v>0.25283</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
       <c r="I27" s="10">
-        <v>0.50290000000000001</v>
+        <v>0.50566</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2221,13 +2221,13 @@
         <v>277</v>
       </c>
       <c r="G28" s="3">
-        <v>0.62200999999999995</v>
+        <v>0.62541999999999998</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
       </c>
       <c r="I28" s="10">
-        <v>0.62200999999999995</v>
+        <v>0.62541999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2250,13 +2250,13 @@
         <v>278</v>
       </c>
       <c r="G29" s="3">
-        <v>0.55584</v>
+        <v>0.55889</v>
       </c>
       <c r="H29" s="3">
         <v>3</v>
       </c>
       <c r="I29" s="10">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2279,13 +2279,13 @@
         <v>279</v>
       </c>
       <c r="G30" s="3">
-        <v>0.4632</v>
+        <v>0.46573999999999999</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
       </c>
       <c r="I30" s="10">
-        <v>0.4632</v>
+        <v>0.46573999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2308,13 +2308,13 @@
         <v>280</v>
       </c>
       <c r="G31" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
       </c>
       <c r="I31" s="10">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,13 +2337,13 @@
         <v>281</v>
       </c>
       <c r="G32" s="3">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
       </c>
       <c r="I32" s="10">
-        <v>1.1100000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2366,13 +2366,13 @@
         <v>282</v>
       </c>
       <c r="G33" s="3">
-        <v>0.38379000000000002</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
       </c>
       <c r="I33" s="10">
-        <v>0.38379000000000002</v>
+        <v>0.38590000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2395,13 +2395,13 @@
         <v>283</v>
       </c>
       <c r="G34" s="3">
-        <v>0.27792</v>
+        <v>0.27944000000000002</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
       </c>
       <c r="I34" s="10">
-        <v>0.27792</v>
+        <v>0.27944000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2424,13 +2424,13 @@
         <v>284</v>
       </c>
       <c r="G35" s="3">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="H35" s="3">
         <v>2</v>
       </c>
       <c r="I35" s="10">
-        <v>6.33</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2453,13 +2453,13 @@
         <v>285</v>
       </c>
       <c r="G36" s="3">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
       </c>
       <c r="I36" s="10">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2482,13 +2482,13 @@
         <v>286</v>
       </c>
       <c r="G37" s="3">
-        <v>0.59553999999999996</v>
+        <v>0.59880999999999995</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
       </c>
       <c r="I37" s="10">
-        <v>0.59553999999999996</v>
+        <v>0.59880999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2511,13 +2511,13 @@
         <v>287</v>
       </c>
       <c r="G38" s="3">
-        <v>0.18528</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="H38" s="3">
         <v>3</v>
       </c>
       <c r="I38" s="10">
-        <v>0.55584</v>
+        <v>0.55889</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2540,13 +2540,13 @@
         <v>288</v>
       </c>
       <c r="G39" s="3">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
       </c>
       <c r="I39" s="10">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2594,13 +2594,13 @@
         <v>290</v>
       </c>
       <c r="G41" s="3">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
       </c>
       <c r="I41" s="10">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2623,13 +2623,13 @@
         <v>291</v>
       </c>
       <c r="G42" s="3">
-        <v>0.44996999999999998</v>
+        <v>0.45243</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
       </c>
       <c r="I42" s="10">
-        <v>0.44996999999999998</v>
+        <v>0.45243</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2652,13 +2652,13 @@
         <v>292</v>
       </c>
       <c r="G43" s="3">
-        <v>0.48966999999999999</v>
+        <v>0.49236000000000002</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
       </c>
       <c r="I43" s="10">
-        <v>0.48966999999999999</v>
+        <v>0.49236000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,13 +2681,13 @@
         <v>293</v>
       </c>
       <c r="G44" s="3">
-        <v>0.71465000000000001</v>
+        <v>0.71857000000000004</v>
       </c>
       <c r="H44" s="3">
         <v>2</v>
       </c>
       <c r="I44" s="10">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2710,13 +2710,13 @@
         <v>294</v>
       </c>
       <c r="G45" s="3">
-        <v>0.22498000000000001</v>
+        <v>0.22622</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
       </c>
       <c r="I45" s="10">
-        <v>0.22498000000000001</v>
+        <v>0.22622</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2739,13 +2739,13 @@
         <v>295</v>
       </c>
       <c r="G46" s="3">
-        <v>0.67495000000000005</v>
+        <v>0.67864999999999998</v>
       </c>
       <c r="H46" s="3">
         <v>1</v>
       </c>
       <c r="I46" s="10">
-        <v>0.67495000000000005</v>
+        <v>0.67864999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2768,13 +2768,13 @@
         <v>296</v>
       </c>
       <c r="G47" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H47" s="3">
         <v>2</v>
       </c>
       <c r="I47" s="10">
-        <v>0.26468999999999998</v>
+        <v>0.26613999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2797,13 +2797,13 @@
         <v>297</v>
       </c>
       <c r="G48" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H48" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I48" s="10">
-        <v>1.19</v>
+        <v>0.93147999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2826,13 +2826,13 @@
         <v>298</v>
       </c>
       <c r="G49" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H49" s="3">
         <v>4</v>
       </c>
       <c r="I49" s="10">
-        <v>0.52937000000000001</v>
+        <v>0.53227999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2843,7 +2843,7 @@
         <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>230</v>
@@ -2855,13 +2855,13 @@
         <v>299</v>
       </c>
       <c r="G50" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H50" s="3">
         <v>1</v>
       </c>
       <c r="I50" s="10">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2884,13 +2884,13 @@
         <v>300</v>
       </c>
       <c r="G51" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H51" s="3">
         <v>2</v>
       </c>
       <c r="I51" s="10">
-        <v>0.26468999999999998</v>
+        <v>0.26613999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2913,13 +2913,13 @@
         <v>301</v>
       </c>
       <c r="G52" s="3">
-        <v>0.15881000000000001</v>
+        <v>0.15967999999999999</v>
       </c>
       <c r="H52" s="3">
         <v>1</v>
       </c>
       <c r="I52" s="10">
-        <v>0.15881000000000001</v>
+        <v>0.15967999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2942,13 +2942,13 @@
         <v>302</v>
       </c>
       <c r="G53" s="3">
-        <v>0.17205000000000001</v>
+        <v>0.17299</v>
       </c>
       <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="I53" s="10">
-        <v>0.17205000000000001</v>
+        <v>0.17299</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2971,13 +2971,13 @@
         <v>303</v>
       </c>
       <c r="G54" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H54" s="3">
         <v>4</v>
       </c>
       <c r="I54" s="10">
-        <v>0.52937000000000001</v>
+        <v>0.53227999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3000,13 +3000,13 @@
         <v>304</v>
       </c>
       <c r="G55" s="3">
-        <v>0.43673000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H55" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I55" s="10">
-        <v>0.43673000000000001</v>
+        <v>0.53227999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3017,7 +3017,7 @@
         <v>142</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>236</v>
@@ -3029,13 +3029,13 @@
         <v>305</v>
       </c>
       <c r="G56" s="3">
-        <v>0.33085999999999999</v>
+        <v>0.43913000000000002</v>
       </c>
       <c r="H56" s="3">
         <v>1</v>
       </c>
       <c r="I56" s="10">
-        <v>0.33085999999999999</v>
+        <v>0.43913000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
         <v>143</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>237</v>
@@ -3058,13 +3058,13 @@
         <v>306</v>
       </c>
       <c r="G57" s="3">
-        <v>0.51614000000000004</v>
+        <v>0.33267000000000002</v>
       </c>
       <c r="H57" s="3">
         <v>1</v>
       </c>
       <c r="I57" s="10">
-        <v>0.51614000000000004</v>
+        <v>0.33267000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3075,7 +3075,7 @@
         <v>144</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>238</v>
@@ -3087,13 +3087,13 @@
         <v>307</v>
       </c>
       <c r="G58" s="3">
-        <v>0.38379000000000002</v>
+        <v>0.51897000000000004</v>
       </c>
       <c r="H58" s="3">
         <v>1</v>
       </c>
       <c r="I58" s="10">
-        <v>0.38379000000000002</v>
+        <v>0.51897000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3104,7 +3104,7 @@
         <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>239</v>
@@ -3116,13 +3116,13 @@
         <v>308</v>
       </c>
       <c r="G59" s="3">
-        <v>0.71465000000000001</v>
+        <v>0.38590000000000002</v>
       </c>
       <c r="H59" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" s="10">
-        <v>2.14</v>
+        <v>0.38590000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3133,7 +3133,7 @@
         <v>146</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>240</v>
@@ -3145,13 +3145,13 @@
         <v>309</v>
       </c>
       <c r="G60" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.71857000000000004</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" s="10">
-        <v>0.13234000000000001</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3174,13 +3174,13 @@
         <v>310</v>
       </c>
       <c r="G61" s="3">
-        <v>0.54261000000000004</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
       </c>
       <c r="I61" s="10">
-        <v>0.54261000000000004</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3203,13 +3203,13 @@
         <v>311</v>
       </c>
       <c r="G62" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.54557999999999995</v>
       </c>
       <c r="H62" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="10">
-        <v>0.26468999999999998</v>
+        <v>0.54557999999999995</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3232,13 +3232,13 @@
         <v>312</v>
       </c>
       <c r="G63" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H63" s="3">
         <v>2</v>
       </c>
       <c r="I63" s="10">
-        <v>0.26468999999999998</v>
+        <v>0.26613999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3261,13 +3261,13 @@
         <v>313</v>
       </c>
       <c r="G64" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H64" s="3">
         <v>3</v>
       </c>
       <c r="I64" s="10">
-        <v>0.39702999999999999</v>
+        <v>0.39921000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3290,13 +3290,13 @@
         <v>314</v>
       </c>
       <c r="G65" s="3">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
       <c r="H65" s="3">
         <v>1</v>
       </c>
       <c r="I65" s="10">
-        <v>0.13234000000000001</v>
+        <v>0.13306999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3319,13 +3319,13 @@
         <v>315</v>
       </c>
       <c r="G66" s="3">
-        <v>0.9264</v>
+        <v>0.93147999999999997</v>
       </c>
       <c r="H66" s="3">
         <v>1</v>
       </c>
       <c r="I66" s="10">
-        <v>0.9264</v>
+        <v>0.93147999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3335,27 +3335,15 @@
       <c r="B67" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="G67" s="3">
-        <v>3.81</v>
-      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="3">
-        <v>1</v>
-      </c>
-      <c r="I67" s="10">
-        <v>3.81</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
@@ -3368,22 +3356,22 @@
         <v>188</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G68" s="3">
-        <v>2.83</v>
+        <v>3.83</v>
       </c>
       <c r="H68" s="3">
         <v>1</v>
       </c>
       <c r="I68" s="10">
-        <v>2.83</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3394,25 +3382,25 @@
         <v>155</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G69" s="3">
-        <v>1.77</v>
+        <v>2.85</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
       </c>
       <c r="I69" s="10">
-        <v>1.77</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3423,25 +3411,25 @@
         <v>156</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G70" s="3">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
       </c>
       <c r="I70" s="10">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3452,25 +3440,25 @@
         <v>157</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G71" s="3">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="H71" s="3">
         <v>1</v>
       </c>
       <c r="I71" s="10">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3481,25 +3469,25 @@
         <v>158</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G72" s="3">
-        <v>3.16</v>
+        <v>1.46</v>
       </c>
       <c r="H72" s="3">
         <v>1</v>
       </c>
       <c r="I72" s="10">
-        <v>3.16</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3510,25 +3498,25 @@
         <v>159</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G73" s="3">
-        <v>2.65</v>
+        <v>3.18</v>
       </c>
       <c r="H73" s="3">
         <v>1</v>
       </c>
       <c r="I73" s="10">
-        <v>2.65</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3542,22 +3530,22 @@
         <v>188</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G74" s="3">
-        <v>3.72</v>
+        <v>2.66</v>
       </c>
       <c r="H74" s="3">
         <v>1</v>
       </c>
       <c r="I74" s="10">
-        <v>3.72</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3571,22 +3559,22 @@
         <v>188</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G75" s="3">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="H75" s="3">
         <v>1</v>
       </c>
       <c r="I75" s="10">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3597,25 +3585,25 @@
         <v>162</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>258</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G76" s="3">
-        <v>0.59553999999999996</v>
+        <v>2.17</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
       </c>
       <c r="I76" s="10">
-        <v>0.59553999999999996</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3625,15 +3613,27 @@
       <c r="B77" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="3"/>
+      <c r="C77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.59880999999999995</v>
+      </c>
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="10">
+        <v>0.59880999999999995</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="I78" s="14">
         <f>SUM(I12:I77)</f>
-        <v>78.749470000000002</v>
+        <v>79.188129999999973</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
